--- a/region-pdl-audio/api/data/2018_12_12 JDD sons.xlsx
+++ b/region-pdl-audio/api/data/2018_12_12 JDD sons.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\annee_4\S8\HybLab\HyblabDDJ2019\region-pdl-audio\api\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\annee_4\S8\HybLab\DONNEES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F6ACD2-7904-441A-A3EE-7DD2974D9C85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F0A5DA-488C-401E-B473-6C9B4F9C6B0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="0" windowWidth="23685" windowHeight="11535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1976,9 +1976,6 @@
     <t>11-12/10/1974</t>
   </si>
   <si>
-    <t>31/01/1975-01/02/195</t>
-  </si>
-  <si>
     <t>06-07/02/1976</t>
   </si>
   <si>
@@ -2305,6 +2302,9 @@
   </si>
   <si>
     <t>Tableau récapitulant les données associés à chaque fichier son : réunion concernée (dates, objet, mots-clés) et métadonnées techniques des sons (identifiant, durée, poids, qualité sonore)</t>
+  </si>
+  <si>
+    <t>31/01/1975-01/02/1975</t>
   </si>
 </sst>
 </file>
@@ -3097,18 +3097,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>754</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
+        <v>755</v>
+      </c>
+      <c r="B2" s="63" t="s">
         <v>756</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -3124,8 +3124,8 @@
   <dimension ref="A1:R339"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C338" sqref="A324:XFD338"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,40 +3165,40 @@
         <v>618</v>
       </c>
       <c r="F1" s="38" t="s">
+        <v>656</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>657</v>
       </c>
-      <c r="G1" s="38" t="s">
-        <v>658</v>
-      </c>
       <c r="H1" s="40" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>615</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>732</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="P1" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q1" s="57" t="s">
         <v>722</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>733</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>732</v>
-      </c>
-      <c r="P1" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="Q1" s="57" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>2</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -3294,7 +3294,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -3341,7 +3341,7 @@
         <v>6</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -3388,7 +3388,7 @@
         <v>4</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -3435,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -3482,7 +3482,7 @@
         <v>5</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -3529,7 +3529,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -3576,7 +3576,7 @@
         <v>6</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -3623,7 +3623,7 @@
         <v>6</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -3670,7 +3670,7 @@
         <v>7</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -3717,7 +3717,7 @@
         <v>7</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -3764,7 +3764,7 @@
         <v>7</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -3786,7 +3786,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G14" s="43"/>
       <c r="H14" s="44">
@@ -3811,7 +3811,7 @@
         <v>4</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -3833,7 +3833,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G15" s="43"/>
       <c r="H15" s="44">
@@ -3858,7 +3858,7 @@
         <v>4</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -3880,7 +3880,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G16" s="43"/>
       <c r="H16" s="44">
@@ -3905,7 +3905,7 @@
         <v>4</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -3927,7 +3927,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G17" s="43"/>
       <c r="H17" s="44">
@@ -3952,7 +3952,7 @@
         <v>5</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -3999,7 +3999,7 @@
         <v>3</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -4046,7 +4046,7 @@
         <v>3</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -4093,7 +4093,7 @@
         <v>3</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -4140,7 +4140,7 @@
         <v>4</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -4162,7 +4162,7 @@
         <v>46</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>648</v>
+        <v>757</v>
       </c>
       <c r="G22" s="43"/>
       <c r="H22" s="44">
@@ -4187,7 +4187,7 @@
         <v>3</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -4209,7 +4209,7 @@
         <v>46</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>648</v>
+        <v>757</v>
       </c>
       <c r="G23" s="43"/>
       <c r="H23" s="44">
@@ -4234,7 +4234,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -4256,7 +4256,7 @@
         <v>46</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>648</v>
+        <v>757</v>
       </c>
       <c r="G24" s="43"/>
       <c r="H24" s="44">
@@ -4281,7 +4281,7 @@
         <v>3</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -4303,7 +4303,7 @@
         <v>52</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>648</v>
+        <v>757</v>
       </c>
       <c r="G25" s="43"/>
       <c r="H25" s="44">
@@ -4328,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -4350,7 +4350,7 @@
         <v>52</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>648</v>
+        <v>757</v>
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="44">
@@ -4375,7 +4375,7 @@
         <v>3</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -4397,7 +4397,7 @@
         <v>52</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>648</v>
+        <v>757</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="44">
@@ -4422,7 +4422,7 @@
         <v>4</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -4444,7 +4444,7 @@
         <v>52</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>648</v>
+        <v>757</v>
       </c>
       <c r="G28" s="43"/>
       <c r="H28" s="44">
@@ -4469,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -4516,7 +4516,7 @@
         <v>4</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -4563,7 +4563,7 @@
         <v>4</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -4610,7 +4610,7 @@
         <v>4</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -4657,7 +4657,7 @@
         <v>4</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -4704,7 +4704,7 @@
         <v>4</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -4814,7 +4814,7 @@
         <v>74</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="44">
@@ -4839,7 +4839,7 @@
         <v>3</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -4861,7 +4861,7 @@
         <v>74</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G37" s="43"/>
       <c r="H37" s="44">
@@ -4886,7 +4886,7 @@
         <v>3</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -4908,7 +4908,7 @@
         <v>78</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G38" s="43"/>
       <c r="H38" s="44">
@@ -4933,7 +4933,7 @@
         <v>2</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -4955,7 +4955,7 @@
         <v>81</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G39" s="43"/>
       <c r="H39" s="44">
@@ -4980,7 +4980,7 @@
         <v>3</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
@@ -5002,7 +5002,7 @@
         <v>81</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G40" s="43"/>
       <c r="H40" s="44">
@@ -5027,7 +5027,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -5049,7 +5049,7 @@
         <v>85</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G41" s="43"/>
       <c r="H41" s="44">
@@ -5074,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
@@ -5096,7 +5096,7 @@
         <v>88</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G42" s="43"/>
       <c r="H42" s="44">
@@ -5121,7 +5121,7 @@
         <v>5</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -5143,7 +5143,7 @@
         <v>91</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G43" s="43"/>
       <c r="H43" s="44">
@@ -5168,7 +5168,7 @@
         <v>3</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -5190,7 +5190,7 @@
         <v>94</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G44" s="43"/>
       <c r="H44" s="44">
@@ -5215,7 +5215,7 @@
         <v>5</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
@@ -5237,7 +5237,7 @@
         <v>94</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G45" s="43"/>
       <c r="H45" s="44">
@@ -5262,7 +5262,7 @@
         <v>5</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
@@ -5284,7 +5284,7 @@
         <v>98</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G46" s="43"/>
       <c r="H46" s="44">
@@ -5309,7 +5309,7 @@
         <v>3</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -5331,7 +5331,7 @@
         <v>98</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G47" s="43"/>
       <c r="H47" s="44">
@@ -5356,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
@@ -5378,7 +5378,7 @@
         <v>102</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G48" s="43"/>
       <c r="H48" s="44">
@@ -5403,7 +5403,7 @@
         <v>4</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
@@ -5450,7 +5450,7 @@
         <v>3</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
@@ -5497,7 +5497,7 @@
         <v>3</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -5544,7 +5544,7 @@
         <v>3</v>
       </c>
       <c r="O51" s="16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
@@ -5566,7 +5566,7 @@
         <v>109</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G52" s="43"/>
       <c r="H52" s="44">
@@ -5591,7 +5591,7 @@
         <v>6</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
@@ -5613,7 +5613,7 @@
         <v>109</v>
       </c>
       <c r="F53" s="43" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G53" s="43"/>
       <c r="H53" s="44">
@@ -5638,7 +5638,7 @@
         <v>6</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
@@ -5660,7 +5660,7 @@
         <v>109</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G54" s="43"/>
       <c r="H54" s="44">
@@ -5685,7 +5685,7 @@
         <v>6</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
@@ -5707,7 +5707,7 @@
         <v>109</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G55" s="43"/>
       <c r="H55" s="44">
@@ -5732,7 +5732,7 @@
         <v>6</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
@@ -5754,7 +5754,7 @@
         <v>112</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G56" s="43"/>
       <c r="H56" s="44">
@@ -5779,7 +5779,7 @@
         <v>5</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -5801,7 +5801,7 @@
         <v>112</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G57" s="43"/>
       <c r="H57" s="44">
@@ -5826,7 +5826,7 @@
         <v>5</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
@@ -5848,7 +5848,7 @@
         <v>112</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G58" s="43"/>
       <c r="H58" s="44">
@@ -5873,7 +5873,7 @@
         <v>5</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
@@ -5895,7 +5895,7 @@
         <v>112</v>
       </c>
       <c r="F59" s="43" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G59" s="43"/>
       <c r="H59" s="44">
@@ -5920,7 +5920,7 @@
         <v>5</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
@@ -5942,7 +5942,7 @@
         <v>112</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G60" s="43"/>
       <c r="H60" s="44">
@@ -5967,7 +5967,7 @@
         <v>4</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
@@ -5992,7 +5992,7 @@
         <v>28674</v>
       </c>
       <c r="G61" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H61" s="44">
         <v>28674</v>
@@ -6016,7 +6016,7 @@
         <v>4</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
@@ -6041,7 +6041,7 @@
         <v>28674</v>
       </c>
       <c r="G62" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H62" s="44">
         <v>28674</v>
@@ -6065,7 +6065,7 @@
         <v>4</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
@@ -6090,7 +6090,7 @@
         <v>28674</v>
       </c>
       <c r="G63" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H63" s="44">
         <v>28674</v>
@@ -6114,7 +6114,7 @@
         <v>4</v>
       </c>
       <c r="O63" s="16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
@@ -6139,7 +6139,7 @@
         <v>28674</v>
       </c>
       <c r="G64" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H64" s="44">
         <v>28674</v>
@@ -6163,7 +6163,7 @@
         <v>3</v>
       </c>
       <c r="O64" s="16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
@@ -6188,7 +6188,7 @@
         <v>28674</v>
       </c>
       <c r="G65" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H65" s="44">
         <v>28674</v>
@@ -6212,7 +6212,7 @@
         <v>3</v>
       </c>
       <c r="O65" s="16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
@@ -6237,7 +6237,7 @@
         <v>28674</v>
       </c>
       <c r="G66" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H66" s="44">
         <v>28674</v>
@@ -6261,7 +6261,7 @@
         <v>3</v>
       </c>
       <c r="O66" s="16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
@@ -6283,10 +6283,10 @@
         <v>124</v>
       </c>
       <c r="F67" s="43" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G67" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H67" s="44">
         <v>28891</v>
@@ -6310,7 +6310,7 @@
         <v>4</v>
       </c>
       <c r="O67" s="16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q67" s="3"/>
     </row>
@@ -6331,10 +6331,10 @@
         <v>124</v>
       </c>
       <c r="F68" s="43" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G68" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H68" s="44">
         <v>28891</v>
@@ -6358,7 +6358,7 @@
         <v>4</v>
       </c>
       <c r="O68" s="16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q68" s="3"/>
     </row>
@@ -6379,10 +6379,10 @@
         <v>124</v>
       </c>
       <c r="F69" s="43" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G69" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H69" s="44">
         <v>28891</v>
@@ -6406,7 +6406,7 @@
         <v>4</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q69" s="3"/>
     </row>
@@ -6427,10 +6427,10 @@
         <v>124</v>
       </c>
       <c r="F70" s="43" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G70" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H70" s="44">
         <v>28891</v>
@@ -6454,7 +6454,7 @@
         <v>4</v>
       </c>
       <c r="O70" s="16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q70" s="3"/>
     </row>
@@ -6475,10 +6475,10 @@
         <v>129</v>
       </c>
       <c r="F71" s="43" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G71" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H71" s="44">
         <v>28892</v>
@@ -6502,7 +6502,7 @@
         <v>4</v>
       </c>
       <c r="O71" s="16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q71" s="3"/>
     </row>
@@ -6523,10 +6523,10 @@
         <v>129</v>
       </c>
       <c r="F72" s="43" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G72" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H72" s="44">
         <v>28892</v>
@@ -6550,7 +6550,7 @@
         <v>4</v>
       </c>
       <c r="O72" s="16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q72" s="3"/>
     </row>
@@ -6571,10 +6571,10 @@
         <v>129</v>
       </c>
       <c r="F73" s="43" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G73" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H73" s="44">
         <v>28892</v>
@@ -6598,7 +6598,7 @@
         <v>4</v>
       </c>
       <c r="O73" s="16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q73" s="3"/>
     </row>
@@ -6619,10 +6619,10 @@
         <v>129</v>
       </c>
       <c r="F74" s="43" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G74" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H74" s="44">
         <v>28892</v>
@@ -6646,7 +6646,7 @@
         <v>4</v>
       </c>
       <c r="O74" s="16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q74" s="3"/>
     </row>
@@ -6670,7 +6670,7 @@
         <v>29038</v>
       </c>
       <c r="G75" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H75" s="44">
         <v>29038</v>
@@ -6694,10 +6694,10 @@
         <v>4</v>
       </c>
       <c r="O75" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="P75" s="9" t="s">
         <v>676</v>
-      </c>
-      <c r="P75" s="9" t="s">
-        <v>677</v>
       </c>
       <c r="Q75" s="3"/>
     </row>
@@ -6721,7 +6721,7 @@
         <v>29038</v>
       </c>
       <c r="G76" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H76" s="44">
         <v>29038</v>
@@ -6745,10 +6745,10 @@
         <v>4</v>
       </c>
       <c r="O76" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="P76" s="9" t="s">
         <v>676</v>
-      </c>
-      <c r="P76" s="9" t="s">
-        <v>677</v>
       </c>
       <c r="Q76" s="3"/>
     </row>
@@ -6772,7 +6772,7 @@
         <v>29038</v>
       </c>
       <c r="G77" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H77" s="44">
         <v>29038</v>
@@ -6796,10 +6796,10 @@
         <v>3</v>
       </c>
       <c r="O77" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="P77" s="9" t="s">
         <v>676</v>
-      </c>
-      <c r="P77" s="9" t="s">
-        <v>677</v>
       </c>
       <c r="Q77" s="3"/>
     </row>
@@ -6823,7 +6823,7 @@
         <v>29038</v>
       </c>
       <c r="G78" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H78" s="44">
         <v>29038</v>
@@ -6847,10 +6847,10 @@
         <v>3</v>
       </c>
       <c r="O78" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="P78" s="9" t="s">
         <v>676</v>
-      </c>
-      <c r="P78" s="9" t="s">
-        <v>677</v>
       </c>
       <c r="Q78" s="3"/>
     </row>
@@ -6874,7 +6874,7 @@
         <v>29157</v>
       </c>
       <c r="G79" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H79" s="44">
         <v>29157</v>
@@ -6898,7 +6898,7 @@
         <v>5</v>
       </c>
       <c r="O79" s="16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q79" s="3"/>
     </row>
@@ -6922,7 +6922,7 @@
         <v>29157</v>
       </c>
       <c r="G80" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H80" s="44">
         <v>29157</v>
@@ -6946,7 +6946,7 @@
         <v>5</v>
       </c>
       <c r="O80" s="16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q80" s="3"/>
     </row>
@@ -6967,10 +6967,10 @@
         <v>147</v>
       </c>
       <c r="F81" s="43" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G81" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H81" s="44">
         <v>29262</v>
@@ -6994,7 +6994,7 @@
         <v>4</v>
       </c>
       <c r="O81" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
@@ -7016,10 +7016,10 @@
         <v>147</v>
       </c>
       <c r="F82" s="43" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G82" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H82" s="44">
         <v>29262</v>
@@ -7043,7 +7043,7 @@
         <v>4</v>
       </c>
       <c r="O82" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
@@ -7065,10 +7065,10 @@
         <v>147</v>
       </c>
       <c r="F83" s="43" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G83" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H83" s="44">
         <v>29262</v>
@@ -7092,7 +7092,7 @@
         <v>4</v>
       </c>
       <c r="O83" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
@@ -7114,10 +7114,10 @@
         <v>147</v>
       </c>
       <c r="F84" s="43" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G84" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H84" s="44">
         <v>29262</v>
@@ -7141,7 +7141,7 @@
         <v>4</v>
       </c>
       <c r="O84" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
@@ -7163,10 +7163,10 @@
         <v>154</v>
       </c>
       <c r="F85" s="43" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G85" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H85" s="44">
         <v>29263</v>
@@ -7190,7 +7190,7 @@
         <v>3</v>
       </c>
       <c r="O85" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
@@ -7212,10 +7212,10 @@
         <v>154</v>
       </c>
       <c r="F86" s="43" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G86" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H86" s="44">
         <v>29263</v>
@@ -7239,7 +7239,7 @@
         <v>3</v>
       </c>
       <c r="O86" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
@@ -7261,10 +7261,10 @@
         <v>154</v>
       </c>
       <c r="F87" s="43" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G87" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H87" s="44">
         <v>29263</v>
@@ -7288,7 +7288,7 @@
         <v>4</v>
       </c>
       <c r="O87" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
@@ -7310,10 +7310,10 @@
         <v>154</v>
       </c>
       <c r="F88" s="43" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G88" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H88" s="44">
         <v>29263</v>
@@ -7337,7 +7337,7 @@
         <v>4</v>
       </c>
       <c r="O88" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
@@ -7359,10 +7359,10 @@
         <v>154</v>
       </c>
       <c r="F89" s="43" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G89" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H89" s="44">
         <v>29263</v>
@@ -7386,7 +7386,7 @@
         <v>4</v>
       </c>
       <c r="O89" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
@@ -7411,7 +7411,7 @@
         <v>29402</v>
       </c>
       <c r="G90" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H90" s="44">
         <v>29402</v>
@@ -7435,7 +7435,7 @@
         <v>3</v>
       </c>
       <c r="O90" s="16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
@@ -7460,7 +7460,7 @@
         <v>29402</v>
       </c>
       <c r="G91" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H91" s="44">
         <v>29402</v>
@@ -7484,7 +7484,7 @@
         <v>3</v>
       </c>
       <c r="O91" s="16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
@@ -7509,7 +7509,7 @@
         <v>29402</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H92" s="44">
         <v>29402</v>
@@ -7533,7 +7533,7 @@
         <v>4</v>
       </c>
       <c r="O92" s="16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
@@ -7558,7 +7558,7 @@
         <v>633</v>
       </c>
       <c r="G93" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H93" s="44">
         <v>29623</v>
@@ -7582,7 +7582,7 @@
         <v>4</v>
       </c>
       <c r="O93" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
@@ -7607,7 +7607,7 @@
         <v>633</v>
       </c>
       <c r="G94" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H94" s="44">
         <v>29623</v>
@@ -7631,7 +7631,7 @@
         <v>4</v>
       </c>
       <c r="O94" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
@@ -7656,7 +7656,7 @@
         <v>633</v>
       </c>
       <c r="G95" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H95" s="44">
         <v>29623</v>
@@ -7680,7 +7680,7 @@
         <v>4</v>
       </c>
       <c r="O95" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
@@ -7705,7 +7705,7 @@
         <v>633</v>
       </c>
       <c r="G96" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H96" s="44">
         <v>29623</v>
@@ -7729,7 +7729,7 @@
         <v>4</v>
       </c>
       <c r="O96" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
@@ -7754,7 +7754,7 @@
         <v>633</v>
       </c>
       <c r="G97" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H97" s="44" t="s">
         <v>633</v>
@@ -7778,7 +7778,7 @@
         <v>4</v>
       </c>
       <c r="O97" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
@@ -7803,7 +7803,7 @@
         <v>633</v>
       </c>
       <c r="G98" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H98" s="44" t="s">
         <v>633</v>
@@ -7827,7 +7827,7 @@
         <v>4</v>
       </c>
       <c r="O98" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
@@ -7852,7 +7852,7 @@
         <v>633</v>
       </c>
       <c r="G99" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H99" s="44" t="s">
         <v>633</v>
@@ -7876,7 +7876,7 @@
         <v>4</v>
       </c>
       <c r="O99" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
@@ -7901,7 +7901,7 @@
         <v>633</v>
       </c>
       <c r="G100" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H100" s="44" t="s">
         <v>633</v>
@@ -7925,7 +7925,7 @@
         <v>4</v>
       </c>
       <c r="O100" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
@@ -7950,7 +7950,7 @@
         <v>29780</v>
       </c>
       <c r="G101" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H101" s="44">
         <v>29780</v>
@@ -7974,7 +7974,7 @@
         <v>4</v>
       </c>
       <c r="O101" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
@@ -7999,7 +7999,7 @@
         <v>29848</v>
       </c>
       <c r="G102" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H102" s="44">
         <v>29848</v>
@@ -8023,7 +8023,7 @@
         <v>2</v>
       </c>
       <c r="O102" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
@@ -8048,7 +8048,7 @@
         <v>29848</v>
       </c>
       <c r="G103" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H103" s="44">
         <v>29848</v>
@@ -8072,7 +8072,7 @@
         <v>2</v>
       </c>
       <c r="O103" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
@@ -8097,7 +8097,7 @@
         <v>29848</v>
       </c>
       <c r="G104" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H104" s="44">
         <v>29848</v>
@@ -8121,7 +8121,7 @@
         <v>2</v>
       </c>
       <c r="O104" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
@@ -8146,7 +8146,7 @@
         <v>29913</v>
       </c>
       <c r="G105" s="43" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H105" s="44">
         <v>29913</v>
@@ -8170,7 +8170,7 @@
         <v>4</v>
       </c>
       <c r="O105" s="16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
@@ -8195,7 +8195,7 @@
         <v>29913</v>
       </c>
       <c r="G106" s="43" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H106" s="44">
         <v>29913</v>
@@ -8219,7 +8219,7 @@
         <v>4</v>
       </c>
       <c r="O106" s="16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
@@ -8244,7 +8244,7 @@
         <v>634</v>
       </c>
       <c r="G107" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H107" s="44" t="s">
         <v>634</v>
@@ -8268,7 +8268,7 @@
         <v>4</v>
       </c>
       <c r="O107" s="16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
@@ -8293,7 +8293,7 @@
         <v>634</v>
       </c>
       <c r="G108" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H108" s="44" t="s">
         <v>634</v>
@@ -8317,7 +8317,7 @@
         <v>4</v>
       </c>
       <c r="O108" s="16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
@@ -8342,7 +8342,7 @@
         <v>634</v>
       </c>
       <c r="G109" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H109" s="44" t="s">
         <v>634</v>
@@ -8366,7 +8366,7 @@
         <v>4</v>
       </c>
       <c r="O109" s="16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
@@ -8391,7 +8391,7 @@
         <v>634</v>
       </c>
       <c r="G110" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H110" s="44" t="s">
         <v>634</v>
@@ -8415,7 +8415,7 @@
         <v>4</v>
       </c>
       <c r="O110" s="16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
@@ -8440,7 +8440,7 @@
         <v>634</v>
       </c>
       <c r="G111" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H111" s="44" t="s">
         <v>634</v>
@@ -8464,7 +8464,7 @@
         <v>4</v>
       </c>
       <c r="O111" s="16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
@@ -8489,7 +8489,7 @@
         <v>634</v>
       </c>
       <c r="G112" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H112" s="44" t="s">
         <v>634</v>
@@ -8513,7 +8513,7 @@
         <v>4</v>
       </c>
       <c r="O112" s="16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
@@ -8538,7 +8538,7 @@
         <v>634</v>
       </c>
       <c r="G113" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H113" s="44" t="s">
         <v>634</v>
@@ -8562,7 +8562,7 @@
         <v>4</v>
       </c>
       <c r="O113" s="16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
@@ -8587,7 +8587,7 @@
         <v>634</v>
       </c>
       <c r="G114" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H114" s="44" t="s">
         <v>634</v>
@@ -8611,7 +8611,7 @@
         <v>4</v>
       </c>
       <c r="O114" s="16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
@@ -8636,7 +8636,7 @@
         <v>634</v>
       </c>
       <c r="G115" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H115" s="44" t="s">
         <v>634</v>
@@ -8660,7 +8660,7 @@
         <v>4</v>
       </c>
       <c r="O115" s="16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
@@ -8685,7 +8685,7 @@
         <v>29997</v>
       </c>
       <c r="G116" s="43" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H116" s="44">
         <v>29997</v>
@@ -8709,7 +8709,7 @@
         <v>4</v>
       </c>
       <c r="O116" s="16" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
@@ -8734,7 +8734,7 @@
         <v>29997</v>
       </c>
       <c r="G117" s="43" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H117" s="44">
         <v>29997</v>
@@ -8758,7 +8758,7 @@
         <v>4</v>
       </c>
       <c r="O117" s="16" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
@@ -8783,7 +8783,7 @@
         <v>29997</v>
       </c>
       <c r="G118" s="43" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H118" s="44">
         <v>29997</v>
@@ -8807,7 +8807,7 @@
         <v>4</v>
       </c>
       <c r="O118" s="16" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
@@ -8832,7 +8832,7 @@
         <v>30056</v>
       </c>
       <c r="G119" s="43" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H119" s="44">
         <v>30056</v>
@@ -8856,7 +8856,7 @@
         <v>4</v>
       </c>
       <c r="O119" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
@@ -8881,7 +8881,7 @@
         <v>30056</v>
       </c>
       <c r="G120" s="43" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H120" s="44">
         <v>30056</v>
@@ -8905,7 +8905,7 @@
         <v>4</v>
       </c>
       <c r="O120" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
@@ -8930,7 +8930,7 @@
         <v>30137</v>
       </c>
       <c r="G121" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H121" s="44">
         <v>30137</v>
@@ -8954,10 +8954,10 @@
         <v>4</v>
       </c>
       <c r="O121" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="P121" s="30" t="s">
         <v>686</v>
-      </c>
-      <c r="P121" s="30" t="s">
-        <v>687</v>
       </c>
       <c r="Q121" s="3"/>
     </row>
@@ -8981,7 +8981,7 @@
         <v>30137</v>
       </c>
       <c r="G122" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H122" s="44">
         <v>30137</v>
@@ -9005,10 +9005,10 @@
         <v>4</v>
       </c>
       <c r="O122" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="P122" s="30" t="s">
         <v>686</v>
-      </c>
-      <c r="P122" s="30" t="s">
-        <v>687</v>
       </c>
       <c r="Q122" s="3"/>
     </row>
@@ -9032,7 +9032,7 @@
         <v>30137</v>
       </c>
       <c r="G123" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H123" s="44">
         <v>30137</v>
@@ -9056,10 +9056,10 @@
         <v>4</v>
       </c>
       <c r="O123" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="P123" s="30" t="s">
         <v>686</v>
-      </c>
-      <c r="P123" s="30" t="s">
-        <v>687</v>
       </c>
       <c r="Q123" s="3"/>
     </row>
@@ -9083,7 +9083,7 @@
         <v>30137</v>
       </c>
       <c r="G124" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H124" s="44">
         <v>30137</v>
@@ -9107,10 +9107,10 @@
         <v>4</v>
       </c>
       <c r="O124" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="P124" s="30" t="s">
         <v>686</v>
-      </c>
-      <c r="P124" s="30" t="s">
-        <v>687</v>
       </c>
       <c r="Q124" s="3"/>
     </row>
@@ -9134,7 +9134,7 @@
         <v>30137</v>
       </c>
       <c r="G125" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H125" s="44">
         <v>30137</v>
@@ -9158,10 +9158,10 @@
         <v>4</v>
       </c>
       <c r="O125" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="P125" s="30" t="s">
         <v>686</v>
-      </c>
-      <c r="P125" s="30" t="s">
-        <v>687</v>
       </c>
       <c r="Q125" s="3"/>
     </row>
@@ -9185,7 +9185,7 @@
         <v>30249</v>
       </c>
       <c r="G126" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H126" s="44">
         <v>30249</v>
@@ -9209,7 +9209,7 @@
         <v>4</v>
       </c>
       <c r="O126" s="16" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
@@ -9234,7 +9234,7 @@
         <v>30249</v>
       </c>
       <c r="G127" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H127" s="44">
         <v>30249</v>
@@ -9258,7 +9258,7 @@
         <v>4</v>
       </c>
       <c r="O127" s="16" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
@@ -9280,10 +9280,10 @@
         <v>215</v>
       </c>
       <c r="F128" s="43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G128" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H128" s="44">
         <v>30347</v>
@@ -9307,7 +9307,7 @@
         <v>6</v>
       </c>
       <c r="O128" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
@@ -9329,10 +9329,10 @@
         <v>215</v>
       </c>
       <c r="F129" s="43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G129" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H129" s="44">
         <v>30347</v>
@@ -9356,7 +9356,7 @@
         <v>6</v>
       </c>
       <c r="O129" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
@@ -9378,10 +9378,10 @@
         <v>215</v>
       </c>
       <c r="F130" s="43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G130" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H130" s="44">
         <v>30347</v>
@@ -9405,7 +9405,7 @@
         <v>6</v>
       </c>
       <c r="O130" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
@@ -9427,10 +9427,10 @@
         <v>215</v>
       </c>
       <c r="F131" s="43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G131" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H131" s="44">
         <v>30347</v>
@@ -9454,7 +9454,7 @@
         <v>6</v>
       </c>
       <c r="O131" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
@@ -9476,10 +9476,10 @@
         <v>219</v>
       </c>
       <c r="F132" s="43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G132" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H132" s="44">
         <v>30348</v>
@@ -9503,7 +9503,7 @@
         <v>5</v>
       </c>
       <c r="O132" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
@@ -9525,10 +9525,10 @@
         <v>219</v>
       </c>
       <c r="F133" s="43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G133" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H133" s="44">
         <v>30348</v>
@@ -9552,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="O133" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
@@ -9574,10 +9574,10 @@
         <v>219</v>
       </c>
       <c r="F134" s="43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G134" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H134" s="44">
         <v>30348</v>
@@ -9601,7 +9601,7 @@
         <v>5</v>
       </c>
       <c r="O134" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
@@ -9623,10 +9623,10 @@
         <v>219</v>
       </c>
       <c r="F135" s="43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G135" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H135" s="44">
         <v>30348</v>
@@ -9650,7 +9650,7 @@
         <v>5</v>
       </c>
       <c r="O135" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
@@ -9675,7 +9675,7 @@
         <v>30501</v>
       </c>
       <c r="G136" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H136" s="44">
         <v>30501</v>
@@ -9699,7 +9699,7 @@
         <v>4</v>
       </c>
       <c r="O136" s="16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
@@ -9724,7 +9724,7 @@
         <v>30501</v>
       </c>
       <c r="G137" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H137" s="44">
         <v>30501</v>
@@ -9748,7 +9748,7 @@
         <v>4</v>
       </c>
       <c r="O137" s="16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
@@ -9773,7 +9773,7 @@
         <v>30501</v>
       </c>
       <c r="G138" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H138" s="44">
         <v>30501</v>
@@ -9797,7 +9797,7 @@
         <v>4</v>
       </c>
       <c r="O138" s="16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
@@ -9822,7 +9822,7 @@
         <v>30501</v>
       </c>
       <c r="G139" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H139" s="44">
         <v>30501</v>
@@ -9846,7 +9846,7 @@
         <v>4</v>
       </c>
       <c r="O139" s="16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
@@ -9871,7 +9871,7 @@
         <v>30613</v>
       </c>
       <c r="G140" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H140" s="44">
         <v>30613</v>
@@ -9895,7 +9895,7 @@
         <v>7</v>
       </c>
       <c r="O140" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
@@ -9920,7 +9920,7 @@
         <v>30613</v>
       </c>
       <c r="G141" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H141" s="44">
         <v>30613</v>
@@ -9944,7 +9944,7 @@
         <v>9</v>
       </c>
       <c r="O141" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
@@ -9969,7 +9969,7 @@
         <v>30613</v>
       </c>
       <c r="G142" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H142" s="44">
         <v>30613</v>
@@ -9993,7 +9993,7 @@
         <v>6</v>
       </c>
       <c r="O142" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
@@ -10018,7 +10018,7 @@
         <v>30613</v>
       </c>
       <c r="G143" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H143" s="44">
         <v>30613</v>
@@ -10042,7 +10042,7 @@
         <v>8</v>
       </c>
       <c r="O143" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
@@ -10067,7 +10067,7 @@
         <v>30613</v>
       </c>
       <c r="G144" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H144" s="44">
         <v>30613</v>
@@ -10091,7 +10091,7 @@
         <v>5</v>
       </c>
       <c r="O144" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
@@ -10116,7 +10116,7 @@
         <v>635</v>
       </c>
       <c r="G145" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H145" s="44" t="s">
         <v>635</v>
@@ -10140,10 +10140,10 @@
         <v>5</v>
       </c>
       <c r="O145" s="16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="P145" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Q145" s="3"/>
     </row>
@@ -10167,7 +10167,7 @@
         <v>635</v>
       </c>
       <c r="G146" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H146" s="44" t="s">
         <v>635</v>
@@ -10191,10 +10191,10 @@
         <v>5</v>
       </c>
       <c r="O146" s="16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="P146" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Q146" s="3"/>
     </row>
@@ -10218,7 +10218,7 @@
         <v>635</v>
       </c>
       <c r="G147" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H147" s="44" t="s">
         <v>635</v>
@@ -10242,10 +10242,10 @@
         <v>5</v>
       </c>
       <c r="O147" s="16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="P147" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Q147" s="3"/>
     </row>
@@ -10269,7 +10269,7 @@
         <v>635</v>
       </c>
       <c r="G148" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H148" s="44" t="s">
         <v>635</v>
@@ -10293,10 +10293,10 @@
         <v>5</v>
       </c>
       <c r="O148" s="16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="P148" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Q148" s="3"/>
     </row>
@@ -10320,7 +10320,7 @@
         <v>635</v>
       </c>
       <c r="G149" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H149" s="44" t="s">
         <v>635</v>
@@ -10344,10 +10344,10 @@
         <v>5</v>
       </c>
       <c r="O149" s="16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="P149" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Q149" s="3"/>
     </row>
@@ -10371,7 +10371,7 @@
         <v>635</v>
       </c>
       <c r="G150" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H150" s="44" t="s">
         <v>635</v>
@@ -10395,10 +10395,10 @@
         <v>5</v>
       </c>
       <c r="O150" s="16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="P150" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Q150" s="3"/>
     </row>
@@ -10422,7 +10422,7 @@
         <v>30865</v>
       </c>
       <c r="G151" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H151" s="44">
         <v>30865</v>
@@ -10446,7 +10446,7 @@
         <v>5</v>
       </c>
       <c r="O151" s="16" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
@@ -10471,7 +10471,7 @@
         <v>30865</v>
       </c>
       <c r="G152" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H152" s="44">
         <v>30865</v>
@@ -10495,7 +10495,7 @@
         <v>5</v>
       </c>
       <c r="O152" s="16" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
@@ -10520,7 +10520,7 @@
         <v>30984</v>
       </c>
       <c r="G153" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H153" s="44">
         <v>30984</v>
@@ -10544,7 +10544,7 @@
         <v>7</v>
       </c>
       <c r="O153" s="16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
@@ -10569,7 +10569,7 @@
         <v>30984</v>
       </c>
       <c r="G154" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H154" s="44">
         <v>30984</v>
@@ -10593,7 +10593,7 @@
         <v>7</v>
       </c>
       <c r="O154" s="16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
@@ -10618,7 +10618,7 @@
         <v>30984</v>
       </c>
       <c r="G155" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H155" s="44">
         <v>30984</v>
@@ -10642,7 +10642,7 @@
         <v>5</v>
       </c>
       <c r="O155" s="16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
@@ -10667,7 +10667,7 @@
         <v>30984</v>
       </c>
       <c r="G156" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H156" s="44">
         <v>30984</v>
@@ -10691,7 +10691,7 @@
         <v>5</v>
       </c>
       <c r="O156" s="16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
@@ -10716,7 +10716,7 @@
         <v>30984</v>
       </c>
       <c r="G157" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H157" s="44">
         <v>30984</v>
@@ -10740,7 +10740,7 @@
         <v>6</v>
       </c>
       <c r="O157" s="16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
@@ -10765,7 +10765,7 @@
         <v>30984</v>
       </c>
       <c r="G158" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H158" s="44">
         <v>30984</v>
@@ -10789,7 +10789,7 @@
         <v>6</v>
       </c>
       <c r="O158" s="16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
@@ -10814,7 +10814,7 @@
         <v>636</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H159" s="18" t="s">
         <v>636</v>
@@ -10838,7 +10838,7 @@
         <v>1</v>
       </c>
       <c r="O159" s="16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
@@ -10863,7 +10863,7 @@
         <v>636</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H160" s="18" t="s">
         <v>636</v>
@@ -10887,7 +10887,7 @@
         <v>1</v>
       </c>
       <c r="O160" s="16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
@@ -10912,7 +10912,7 @@
         <v>636</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H161" s="18" t="s">
         <v>636</v>
@@ -10936,7 +10936,7 @@
         <v>5</v>
       </c>
       <c r="O161" s="16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
@@ -10961,7 +10961,7 @@
         <v>636</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H162" s="18" t="s">
         <v>636</v>
@@ -10985,7 +10985,7 @@
         <v>5</v>
       </c>
       <c r="O162" s="16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
@@ -11010,7 +11010,7 @@
         <v>636</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H163" s="18" t="s">
         <v>636</v>
@@ -11034,7 +11034,7 @@
         <v>4</v>
       </c>
       <c r="O163" s="16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
@@ -11059,7 +11059,7 @@
         <v>636</v>
       </c>
       <c r="G164" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H164" s="18" t="s">
         <v>636</v>
@@ -11083,7 +11083,7 @@
         <v>4</v>
       </c>
       <c r="O164" s="16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
@@ -11108,7 +11108,7 @@
         <v>636</v>
       </c>
       <c r="G165" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H165" s="18" t="s">
         <v>636</v>
@@ -11132,7 +11132,7 @@
         <v>1</v>
       </c>
       <c r="O165" s="16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
@@ -11157,7 +11157,7 @@
         <v>636</v>
       </c>
       <c r="G166" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H166" s="18" t="s">
         <v>636</v>
@@ -11181,7 +11181,7 @@
         <v>3</v>
       </c>
       <c r="O166" s="16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
@@ -11206,7 +11206,7 @@
         <v>636</v>
       </c>
       <c r="G167" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H167" s="18" t="s">
         <v>636</v>
@@ -11230,7 +11230,7 @@
         <v>3</v>
       </c>
       <c r="O167" s="16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="R167" s="31"/>
     </row>
@@ -11254,7 +11254,7 @@
         <v>636</v>
       </c>
       <c r="G168" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H168" s="18" t="s">
         <v>636</v>
@@ -11278,7 +11278,7 @@
         <v>5</v>
       </c>
       <c r="O168" s="16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
@@ -11303,7 +11303,7 @@
         <v>636</v>
       </c>
       <c r="G169" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H169" s="18" t="s">
         <v>636</v>
@@ -11327,7 +11327,7 @@
         <v>5</v>
       </c>
       <c r="O169" s="16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="R169" s="31"/>
     </row>
@@ -11351,7 +11351,7 @@
         <v>31152</v>
       </c>
       <c r="G170" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H170" s="18">
         <v>31152</v>
@@ -11375,7 +11375,7 @@
         <v>7</v>
       </c>
       <c r="O170" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
@@ -11400,7 +11400,7 @@
         <v>31229</v>
       </c>
       <c r="G171" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H171" s="44">
         <v>31229</v>
@@ -11424,7 +11424,7 @@
         <v>6</v>
       </c>
       <c r="O171" s="16" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
@@ -11449,7 +11449,7 @@
         <v>31229</v>
       </c>
       <c r="G172" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H172" s="44">
         <v>31229</v>
@@ -11473,7 +11473,7 @@
         <v>6</v>
       </c>
       <c r="O172" s="16" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P172" s="3"/>
       <c r="Q172" s="3"/>
@@ -11498,7 +11498,7 @@
         <v>31348</v>
       </c>
       <c r="G173" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H173" s="18">
         <v>31348</v>
@@ -11522,7 +11522,7 @@
         <v>7</v>
       </c>
       <c r="O173" s="16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="P173" s="30"/>
       <c r="Q173" s="3"/>
@@ -11547,7 +11547,7 @@
         <v>31348</v>
       </c>
       <c r="G174" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H174" s="18">
         <v>31348</v>
@@ -11571,7 +11571,7 @@
         <v>7</v>
       </c>
       <c r="O174" s="16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="P174" s="30"/>
       <c r="R174" s="31"/>
@@ -11596,7 +11596,7 @@
         <v>637</v>
       </c>
       <c r="G175" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H175" s="18" t="s">
         <v>637</v>
@@ -11620,7 +11620,7 @@
         <v>7</v>
       </c>
       <c r="O175" s="16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P175" s="3"/>
       <c r="Q175" s="3"/>
@@ -11645,7 +11645,7 @@
         <v>637</v>
       </c>
       <c r="G176" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H176" s="18" t="s">
         <v>637</v>
@@ -11669,7 +11669,7 @@
         <v>7</v>
       </c>
       <c r="O176" s="16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="R176" s="31"/>
     </row>
@@ -11693,7 +11693,7 @@
         <v>637</v>
       </c>
       <c r="G177" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H177" s="18" t="s">
         <v>637</v>
@@ -11717,7 +11717,7 @@
         <v>7</v>
       </c>
       <c r="O177" s="16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P177" s="3"/>
       <c r="Q177" s="3"/>
@@ -11742,7 +11742,7 @@
         <v>637</v>
       </c>
       <c r="G178" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H178" s="18" t="s">
         <v>637</v>
@@ -11766,7 +11766,7 @@
         <v>7</v>
       </c>
       <c r="O178" s="16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="R178" s="31"/>
     </row>
@@ -11790,7 +11790,7 @@
         <v>637</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H179" s="18" t="s">
         <v>637</v>
@@ -11814,7 +11814,7 @@
         <v>7</v>
       </c>
       <c r="O179" s="16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P179" s="3"/>
       <c r="Q179" s="3"/>
@@ -11839,7 +11839,7 @@
         <v>637</v>
       </c>
       <c r="G180" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H180" s="18" t="s">
         <v>637</v>
@@ -11863,7 +11863,7 @@
         <v>7</v>
       </c>
       <c r="O180" s="16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
@@ -11888,7 +11888,7 @@
         <v>637</v>
       </c>
       <c r="G181" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H181" s="18" t="s">
         <v>637</v>
@@ -11912,7 +11912,7 @@
         <v>7</v>
       </c>
       <c r="O181" s="16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="R181" s="31"/>
     </row>
@@ -11960,7 +11960,7 @@
         <v>4</v>
       </c>
       <c r="O182" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="O183" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P183" s="3"/>
       <c r="Q183" s="3"/>
@@ -12054,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="O184" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
@@ -12079,7 +12079,7 @@
         <v>31593</v>
       </c>
       <c r="G185" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H185" s="18">
         <v>31593</v>
@@ -12103,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="O185" s="16" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P185" s="3"/>
       <c r="Q185" s="3"/>
@@ -12128,7 +12128,7 @@
         <v>31593</v>
       </c>
       <c r="G186" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H186" s="18">
         <v>31593</v>
@@ -12152,7 +12152,7 @@
         <v>1</v>
       </c>
       <c r="O186" s="16" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
@@ -12177,7 +12177,7 @@
         <v>31593</v>
       </c>
       <c r="G187" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H187" s="18">
         <v>31593</v>
@@ -12201,7 +12201,7 @@
         <v>1</v>
       </c>
       <c r="O187" s="16" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P187" s="3"/>
       <c r="Q187" s="3"/>
@@ -12226,7 +12226,7 @@
         <v>31593</v>
       </c>
       <c r="G188" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H188" s="18">
         <v>31593</v>
@@ -12250,7 +12250,7 @@
         <v>1</v>
       </c>
       <c r="O188" s="16" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P188" s="3"/>
       <c r="Q188" s="3"/>
@@ -12275,7 +12275,7 @@
         <v>31593</v>
       </c>
       <c r="G189" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H189" s="18">
         <v>31593</v>
@@ -12299,7 +12299,7 @@
         <v>1</v>
       </c>
       <c r="O189" s="16" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P189" s="3"/>
       <c r="Q189" s="3"/>
@@ -12324,7 +12324,7 @@
         <v>31593</v>
       </c>
       <c r="G190" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H190" s="18">
         <v>31593</v>
@@ -12348,7 +12348,7 @@
         <v>1</v>
       </c>
       <c r="O190" s="16" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P190" s="3"/>
       <c r="Q190" s="3"/>
@@ -12458,10 +12458,10 @@
         <v>318</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G193" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H193" s="18">
         <v>31810</v>
@@ -12485,7 +12485,7 @@
         <v>6</v>
       </c>
       <c r="O193" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P193" s="3"/>
       <c r="Q193" s="3"/>
@@ -12507,10 +12507,10 @@
         <v>318</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G194" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H194" s="18">
         <v>31810</v>
@@ -12534,7 +12534,7 @@
         <v>6</v>
       </c>
       <c r="O194" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
@@ -12556,10 +12556,10 @@
         <v>318</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G195" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H195" s="18">
         <v>31810</v>
@@ -12583,7 +12583,7 @@
         <v>6</v>
       </c>
       <c r="O195" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P195" s="3"/>
       <c r="Q195" s="3"/>
@@ -12605,10 +12605,10 @@
         <v>318</v>
       </c>
       <c r="F196" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G196" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H196" s="18">
         <v>31810</v>
@@ -12632,7 +12632,7 @@
         <v>6</v>
       </c>
       <c r="O196" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P196" s="3"/>
       <c r="Q196" s="3"/>
@@ -12654,10 +12654,10 @@
         <v>318</v>
       </c>
       <c r="F197" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G197" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H197" s="18">
         <v>31810</v>
@@ -12681,7 +12681,7 @@
         <v>7</v>
       </c>
       <c r="O197" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P197" s="3"/>
       <c r="Q197" s="3"/>
@@ -12703,10 +12703,10 @@
         <v>318</v>
       </c>
       <c r="F198" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G198" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H198" s="18">
         <v>31810</v>
@@ -12730,7 +12730,7 @@
         <v>7</v>
       </c>
       <c r="O198" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P198" s="3"/>
       <c r="Q198" s="3"/>
@@ -12752,10 +12752,10 @@
         <v>318</v>
       </c>
       <c r="F199" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G199" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H199" s="18">
         <v>31810</v>
@@ -12779,7 +12779,7 @@
         <v>7</v>
       </c>
       <c r="O199" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P199" s="3"/>
       <c r="Q199" s="3"/>
@@ -12801,10 +12801,10 @@
         <v>318</v>
       </c>
       <c r="F200" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G200" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H200" s="18">
         <v>31810</v>
@@ -12828,7 +12828,7 @@
         <v>7</v>
       </c>
       <c r="O200" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P200" s="3"/>
       <c r="Q200" s="3"/>
@@ -12850,10 +12850,10 @@
         <v>318</v>
       </c>
       <c r="F201" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G201" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H201" s="18">
         <v>31810</v>
@@ -12877,7 +12877,7 @@
         <v>7</v>
       </c>
       <c r="O201" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P201" s="3"/>
       <c r="Q201" s="3"/>
@@ -12899,10 +12899,10 @@
         <v>318</v>
       </c>
       <c r="F202" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G202" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H202" s="18">
         <v>31810</v>
@@ -12926,7 +12926,7 @@
         <v>7</v>
       </c>
       <c r="O202" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P202" s="3"/>
       <c r="Q202" s="3"/>
@@ -12948,10 +12948,10 @@
         <v>318</v>
       </c>
       <c r="F203" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G203" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H203" s="18">
         <v>31810</v>
@@ -12975,7 +12975,7 @@
         <v>7</v>
       </c>
       <c r="O203" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P203" s="3"/>
       <c r="Q203" s="3"/>
@@ -12997,10 +12997,10 @@
         <v>318</v>
       </c>
       <c r="F204" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G204" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H204" s="18">
         <v>31810</v>
@@ -13024,7 +13024,7 @@
         <v>7</v>
       </c>
       <c r="O204" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P204" s="3"/>
       <c r="Q204" s="3"/>
@@ -13046,10 +13046,10 @@
         <v>318</v>
       </c>
       <c r="F205" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G205" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H205" s="18">
         <v>31810</v>
@@ -13073,7 +13073,7 @@
         <v>7</v>
       </c>
       <c r="O205" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P205" s="3"/>
       <c r="Q205" s="3"/>
@@ -13095,10 +13095,10 @@
         <v>318</v>
       </c>
       <c r="F206" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G206" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H206" s="18">
         <v>31810</v>
@@ -13122,7 +13122,7 @@
         <v>7</v>
       </c>
       <c r="O206" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
@@ -13144,10 +13144,10 @@
         <v>318</v>
       </c>
       <c r="F207" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G207" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H207" s="18">
         <v>31810</v>
@@ -13171,7 +13171,7 @@
         <v>7</v>
       </c>
       <c r="O207" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P207" s="3"/>
       <c r="Q207" s="3"/>
@@ -13193,10 +13193,10 @@
         <v>318</v>
       </c>
       <c r="F208" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G208" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H208" s="18">
         <v>31810</v>
@@ -13220,7 +13220,7 @@
         <v>7</v>
       </c>
       <c r="O208" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P208" s="3"/>
       <c r="Q208" s="3"/>
@@ -13242,10 +13242,10 @@
         <v>318</v>
       </c>
       <c r="F209" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G209" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H209" s="18">
         <v>31810</v>
@@ -13269,7 +13269,7 @@
         <v>7</v>
       </c>
       <c r="O209" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P209" s="3"/>
       <c r="Q209" s="3"/>
@@ -13291,10 +13291,10 @@
         <v>318</v>
       </c>
       <c r="F210" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G210" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H210" s="18">
         <v>31810</v>
@@ -13318,7 +13318,7 @@
         <v>7</v>
       </c>
       <c r="O210" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P210" s="3"/>
       <c r="Q210" s="3"/>
@@ -13340,10 +13340,10 @@
         <v>318</v>
       </c>
       <c r="F211" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G211" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H211" s="18">
         <v>31810</v>
@@ -13367,7 +13367,7 @@
         <v>7</v>
       </c>
       <c r="O211" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P211" s="3"/>
       <c r="Q211" s="3"/>
@@ -13389,10 +13389,10 @@
         <v>348</v>
       </c>
       <c r="F212" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G212" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H212" s="18">
         <v>31811</v>
@@ -13416,7 +13416,7 @@
         <v>6</v>
       </c>
       <c r="O212" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P212" s="3"/>
       <c r="Q212" s="3"/>
@@ -13438,10 +13438,10 @@
         <v>348</v>
       </c>
       <c r="F213" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G213" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H213" s="18">
         <v>31811</v>
@@ -13465,7 +13465,7 @@
         <v>6</v>
       </c>
       <c r="O213" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P213" s="3"/>
       <c r="Q213" s="3"/>
@@ -13487,10 +13487,10 @@
         <v>348</v>
       </c>
       <c r="F214" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G214" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H214" s="18">
         <v>31811</v>
@@ -13514,7 +13514,7 @@
         <v>6</v>
       </c>
       <c r="O214" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P214" s="3"/>
       <c r="Q214" s="3"/>
@@ -13536,10 +13536,10 @@
         <v>348</v>
       </c>
       <c r="F215" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G215" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H215" s="18">
         <v>31811</v>
@@ -13563,7 +13563,7 @@
         <v>6</v>
       </c>
       <c r="O215" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P215" s="3"/>
       <c r="Q215" s="3"/>
@@ -13585,10 +13585,10 @@
         <v>348</v>
       </c>
       <c r="F216" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G216" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H216" s="18">
         <v>31811</v>
@@ -13612,7 +13612,7 @@
         <v>6</v>
       </c>
       <c r="O216" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P216" s="3"/>
       <c r="Q216" s="3"/>
@@ -13634,10 +13634,10 @@
         <v>348</v>
       </c>
       <c r="F217" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G217" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H217" s="18">
         <v>31811</v>
@@ -13661,7 +13661,7 @@
         <v>6</v>
       </c>
       <c r="O217" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P217" s="3"/>
       <c r="Q217" s="3"/>
@@ -13683,10 +13683,10 @@
         <v>348</v>
       </c>
       <c r="F218" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G218" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H218" s="18">
         <v>31811</v>
@@ -13710,7 +13710,7 @@
         <v>6</v>
       </c>
       <c r="O218" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P218" s="3"/>
       <c r="Q218" s="3"/>
@@ -13732,10 +13732,10 @@
         <v>348</v>
       </c>
       <c r="F219" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G219" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H219" s="18">
         <v>31811</v>
@@ -13759,7 +13759,7 @@
         <v>6</v>
       </c>
       <c r="O219" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P219" s="3"/>
       <c r="Q219" s="3"/>
@@ -13781,10 +13781,10 @@
         <v>348</v>
       </c>
       <c r="F220" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G220" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H220" s="18">
         <v>31811</v>
@@ -13808,7 +13808,7 @@
         <v>6</v>
       </c>
       <c r="O220" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P220" s="3"/>
       <c r="Q220" s="3"/>
@@ -13833,7 +13833,7 @@
         <v>31957</v>
       </c>
       <c r="G221" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H221" s="18">
         <v>31957</v>
@@ -13857,7 +13857,7 @@
         <v>7</v>
       </c>
       <c r="O221" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P221" s="3"/>
       <c r="Q221" s="3"/>
@@ -13882,7 +13882,7 @@
         <v>31957</v>
       </c>
       <c r="G222" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H222" s="18">
         <v>31957</v>
@@ -13906,7 +13906,7 @@
         <v>7</v>
       </c>
       <c r="O222" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P222" s="3"/>
       <c r="Q222" s="3"/>
@@ -13931,7 +13931,7 @@
         <v>31957</v>
       </c>
       <c r="G223" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H223" s="18">
         <v>31957</v>
@@ -13955,7 +13955,7 @@
         <v>7</v>
       </c>
       <c r="O223" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P223" s="3"/>
       <c r="Q223" s="3"/>
@@ -13980,7 +13980,7 @@
         <v>31957</v>
       </c>
       <c r="G224" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H224" s="18">
         <v>31957</v>
@@ -14004,7 +14004,7 @@
         <v>7</v>
       </c>
       <c r="O224" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P224" s="3"/>
       <c r="Q224" s="3"/>
@@ -14029,7 +14029,7 @@
         <v>31957</v>
       </c>
       <c r="G225" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H225" s="18">
         <v>31957</v>
@@ -14053,7 +14053,7 @@
         <v>7</v>
       </c>
       <c r="O225" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P225" s="3"/>
       <c r="Q225" s="3"/>
@@ -14078,7 +14078,7 @@
         <v>31957</v>
       </c>
       <c r="G226" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H226" s="18">
         <v>31957</v>
@@ -14102,7 +14102,7 @@
         <v>7</v>
       </c>
       <c r="O226" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P226" s="3"/>
       <c r="Q226" s="3"/>
@@ -14127,7 +14127,7 @@
         <v>31957</v>
       </c>
       <c r="G227" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H227" s="18">
         <v>31957</v>
@@ -14151,7 +14151,7 @@
         <v>7</v>
       </c>
       <c r="O227" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P227" s="3"/>
       <c r="Q227" s="3"/>
@@ -14176,7 +14176,7 @@
         <v>31957</v>
       </c>
       <c r="G228" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H228" s="18">
         <v>31957</v>
@@ -14200,7 +14200,7 @@
         <v>7</v>
       </c>
       <c r="O228" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P228" s="3"/>
       <c r="Q228" s="3"/>
@@ -14225,7 +14225,7 @@
         <v>31957</v>
       </c>
       <c r="G229" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H229" s="18">
         <v>31957</v>
@@ -14249,7 +14249,7 @@
         <v>7</v>
       </c>
       <c r="O229" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P229" s="3"/>
       <c r="Q229" s="3"/>
@@ -14274,7 +14274,7 @@
         <v>31957</v>
       </c>
       <c r="G230" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H230" s="18">
         <v>31957</v>
@@ -14298,7 +14298,7 @@
         <v>7</v>
       </c>
       <c r="O230" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P230" s="3"/>
       <c r="Q230" s="3"/>
@@ -14323,7 +14323,7 @@
         <v>31957</v>
       </c>
       <c r="G231" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H231" s="18">
         <v>31957</v>
@@ -14347,7 +14347,7 @@
         <v>7</v>
       </c>
       <c r="O231" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P231" s="3"/>
       <c r="Q231" s="3"/>
@@ -14372,7 +14372,7 @@
         <v>31957</v>
       </c>
       <c r="G232" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H232" s="18">
         <v>31957</v>
@@ -14396,7 +14396,7 @@
         <v>7</v>
       </c>
       <c r="O232" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P232" s="3"/>
       <c r="Q232" s="3"/>
@@ -14421,7 +14421,7 @@
         <v>31957</v>
       </c>
       <c r="G233" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H233" s="18">
         <v>31957</v>
@@ -14445,7 +14445,7 @@
         <v>7</v>
       </c>
       <c r="O233" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P233" s="3"/>
       <c r="Q233" s="3"/>
@@ -14470,7 +14470,7 @@
         <v>31957</v>
       </c>
       <c r="G234" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H234" s="18">
         <v>31957</v>
@@ -14494,7 +14494,7 @@
         <v>7</v>
       </c>
       <c r="O234" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P234" s="3"/>
       <c r="Q234" s="3"/>
@@ -14519,7 +14519,7 @@
         <v>638</v>
       </c>
       <c r="G235" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H235" s="18">
         <v>32076</v>
@@ -14543,7 +14543,7 @@
         <v>7</v>
       </c>
       <c r="O235" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P235" s="3"/>
       <c r="Q235" s="3"/>
@@ -14568,7 +14568,7 @@
         <v>638</v>
       </c>
       <c r="G236" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H236" s="18">
         <v>32076</v>
@@ -14592,7 +14592,7 @@
         <v>7</v>
       </c>
       <c r="O236" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P236" s="3"/>
       <c r="Q236" s="3"/>
@@ -14617,7 +14617,7 @@
         <v>638</v>
       </c>
       <c r="G237" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H237" s="18">
         <v>32076</v>
@@ -14641,7 +14641,7 @@
         <v>7</v>
       </c>
       <c r="O237" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P237" s="3"/>
       <c r="Q237" s="3"/>
@@ -14666,7 +14666,7 @@
         <v>638</v>
       </c>
       <c r="G238" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H238" s="18">
         <v>32076</v>
@@ -14690,7 +14690,7 @@
         <v>7</v>
       </c>
       <c r="O238" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P238" s="3"/>
       <c r="Q238" s="3"/>
@@ -14715,7 +14715,7 @@
         <v>638</v>
       </c>
       <c r="G239" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H239" s="18">
         <v>32076</v>
@@ -14739,7 +14739,7 @@
         <v>7</v>
       </c>
       <c r="O239" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P239" s="3"/>
       <c r="Q239" s="3"/>
@@ -14764,7 +14764,7 @@
         <v>638</v>
       </c>
       <c r="G240" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H240" s="18">
         <v>32076</v>
@@ -14788,7 +14788,7 @@
         <v>7</v>
       </c>
       <c r="O240" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P240" s="3"/>
       <c r="Q240" s="3"/>
@@ -14813,7 +14813,7 @@
         <v>638</v>
       </c>
       <c r="G241" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H241" s="18">
         <v>32076</v>
@@ -14837,7 +14837,7 @@
         <v>7</v>
       </c>
       <c r="O241" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P241" s="3"/>
       <c r="Q241" s="3"/>
@@ -14862,7 +14862,7 @@
         <v>638</v>
       </c>
       <c r="G242" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H242" s="18">
         <v>32076</v>
@@ -14886,7 +14886,7 @@
         <v>7</v>
       </c>
       <c r="O242" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P242" s="3"/>
       <c r="Q242" s="3"/>
@@ -14911,7 +14911,7 @@
         <v>638</v>
       </c>
       <c r="G243" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H243" s="18">
         <v>32076</v>
@@ -14935,7 +14935,7 @@
         <v>7</v>
       </c>
       <c r="O243" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P243" s="3"/>
       <c r="Q243" s="3"/>
@@ -14960,7 +14960,7 @@
         <v>638</v>
       </c>
       <c r="G244" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H244" s="18">
         <v>32076</v>
@@ -14984,7 +14984,7 @@
         <v>7</v>
       </c>
       <c r="O244" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P244" s="3"/>
       <c r="Q244" s="3"/>
@@ -15009,7 +15009,7 @@
         <v>638</v>
       </c>
       <c r="G245" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H245" s="18" t="s">
         <v>638</v>
@@ -15033,7 +15033,7 @@
         <v>7</v>
       </c>
       <c r="O245" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P245" s="3"/>
       <c r="Q245" s="3"/>
@@ -15058,7 +15058,7 @@
         <v>638</v>
       </c>
       <c r="G246" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H246" s="18">
         <v>32077</v>
@@ -15082,7 +15082,7 @@
         <v>7</v>
       </c>
       <c r="O246" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P246" s="3"/>
       <c r="Q246" s="3"/>
@@ -15107,7 +15107,7 @@
         <v>638</v>
       </c>
       <c r="G247" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H247" s="18">
         <v>32077</v>
@@ -15131,7 +15131,7 @@
         <v>7</v>
       </c>
       <c r="O247" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P247" s="3"/>
       <c r="Q247" s="3"/>
@@ -15156,7 +15156,7 @@
         <v>638</v>
       </c>
       <c r="G248" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H248" s="18">
         <v>32077</v>
@@ -15180,7 +15180,7 @@
         <v>7</v>
       </c>
       <c r="O248" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P248" s="3"/>
       <c r="Q248" s="3"/>
@@ -15205,7 +15205,7 @@
         <v>638</v>
       </c>
       <c r="G249" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H249" s="18">
         <v>32077</v>
@@ -15229,7 +15229,7 @@
         <v>7</v>
       </c>
       <c r="O249" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P249" s="3"/>
       <c r="Q249" s="3"/>
@@ -15254,7 +15254,7 @@
         <v>638</v>
       </c>
       <c r="G250" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H250" s="18">
         <v>32077</v>
@@ -15278,7 +15278,7 @@
         <v>7</v>
       </c>
       <c r="O250" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P250" s="3"/>
       <c r="Q250" s="3"/>
@@ -15303,7 +15303,7 @@
         <v>638</v>
       </c>
       <c r="G251" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H251" s="18">
         <v>32077</v>
@@ -15327,7 +15327,7 @@
         <v>7</v>
       </c>
       <c r="O251" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P251" s="3"/>
       <c r="Q251" s="3"/>
@@ -15349,10 +15349,10 @@
         <v>429</v>
       </c>
       <c r="F252" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G252" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H252" s="18" t="s">
         <v>639</v>
@@ -15376,7 +15376,7 @@
         <v>3</v>
       </c>
       <c r="O252" s="16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P252" s="30"/>
       <c r="Q252" s="3"/>
@@ -15398,10 +15398,10 @@
         <v>429</v>
       </c>
       <c r="F253" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G253" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H253" s="18" t="s">
         <v>639</v>
@@ -15425,7 +15425,7 @@
         <v>3</v>
       </c>
       <c r="O253" s="16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P253" s="30"/>
       <c r="Q253" s="3"/>
@@ -15447,10 +15447,10 @@
         <v>429</v>
       </c>
       <c r="F254" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G254" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H254" s="18" t="s">
         <v>639</v>
@@ -15474,7 +15474,7 @@
         <v>3</v>
       </c>
       <c r="O254" s="16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P254" s="30"/>
       <c r="Q254" s="3"/>
@@ -15496,10 +15496,10 @@
         <v>429</v>
       </c>
       <c r="F255" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G255" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H255" s="18" t="s">
         <v>639</v>
@@ -15523,7 +15523,7 @@
         <v>3</v>
       </c>
       <c r="O255" s="16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P255" s="30"/>
       <c r="Q255" s="3"/>
@@ -15545,10 +15545,10 @@
         <v>429</v>
       </c>
       <c r="F256" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G256" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H256" s="18" t="s">
         <v>639</v>
@@ -15572,7 +15572,7 @@
         <v>3</v>
       </c>
       <c r="O256" s="16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P256" s="30"/>
       <c r="Q256" s="3"/>
@@ -15597,7 +15597,7 @@
         <v>32321</v>
       </c>
       <c r="G257" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H257" s="18">
         <v>32321</v>
@@ -15621,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="O257" s="16" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="P257" s="3"/>
       <c r="Q257" s="3"/>
@@ -15646,7 +15646,7 @@
         <v>32321</v>
       </c>
       <c r="G258" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H258" s="18">
         <v>32321</v>
@@ -15670,7 +15670,7 @@
         <v>1</v>
       </c>
       <c r="O258" s="16" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="P258" s="3"/>
       <c r="Q258" s="3"/>
@@ -15695,7 +15695,7 @@
         <v>32321</v>
       </c>
       <c r="G259" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H259" s="18">
         <v>32321</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="O259" s="16" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="P259" s="3"/>
       <c r="Q259" s="3"/>
@@ -15744,7 +15744,7 @@
         <v>32321</v>
       </c>
       <c r="G260" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H260" s="18">
         <v>32321</v>
@@ -15768,7 +15768,7 @@
         <v>1</v>
       </c>
       <c r="O260" s="16" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="P260" s="3"/>
       <c r="Q260" s="3"/>
@@ -15793,7 +15793,7 @@
         <v>32426</v>
       </c>
       <c r="G261" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H261" s="18">
         <v>32426</v>
@@ -15817,7 +15817,7 @@
         <v>3</v>
       </c>
       <c r="O261" s="16" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="P261" s="3"/>
       <c r="Q261" s="3"/>
@@ -15842,7 +15842,7 @@
         <v>640</v>
       </c>
       <c r="G262" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H262" s="18" t="s">
         <v>640</v>
@@ -15866,7 +15866,7 @@
         <v>5</v>
       </c>
       <c r="O262" s="16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="P262" s="3"/>
       <c r="Q262" s="3"/>
@@ -15891,7 +15891,7 @@
         <v>640</v>
       </c>
       <c r="G263" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H263" s="18" t="s">
         <v>640</v>
@@ -15915,7 +15915,7 @@
         <v>5</v>
       </c>
       <c r="O263" s="16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="P263" s="3"/>
       <c r="Q263" s="3"/>
@@ -15940,7 +15940,7 @@
         <v>640</v>
       </c>
       <c r="G264" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H264" s="18" t="s">
         <v>640</v>
@@ -15964,7 +15964,7 @@
         <v>5</v>
       </c>
       <c r="O264" s="16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="P264" s="3"/>
       <c r="Q264" s="3"/>
@@ -15989,7 +15989,7 @@
         <v>640</v>
       </c>
       <c r="G265" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H265" s="18" t="s">
         <v>640</v>
@@ -16013,7 +16013,7 @@
         <v>5</v>
       </c>
       <c r="O265" s="16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="P265" s="3"/>
       <c r="Q265" s="3"/>
@@ -16060,7 +16060,7 @@
         <v>5</v>
       </c>
       <c r="O266" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q266" s="3"/>
     </row>
@@ -16106,7 +16106,7 @@
         <v>5</v>
       </c>
       <c r="O267" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q267" s="3"/>
     </row>
@@ -16130,7 +16130,7 @@
         <v>32685</v>
       </c>
       <c r="G268" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H268" s="18">
         <v>32685</v>
@@ -16154,7 +16154,7 @@
         <v>5</v>
       </c>
       <c r="O268" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P268" s="3"/>
       <c r="Q268" s="3"/>
@@ -16179,7 +16179,7 @@
         <v>32685</v>
       </c>
       <c r="G269" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H269" s="18">
         <v>32685</v>
@@ -16203,7 +16203,7 @@
         <v>5</v>
       </c>
       <c r="O269" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P269" s="3"/>
       <c r="Q269" s="3"/>
@@ -16228,7 +16228,7 @@
         <v>32685</v>
       </c>
       <c r="G270" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H270" s="18">
         <v>32685</v>
@@ -16252,7 +16252,7 @@
         <v>5</v>
       </c>
       <c r="O270" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P270" s="3"/>
       <c r="Q270" s="3"/>
@@ -16277,7 +16277,7 @@
         <v>32804</v>
       </c>
       <c r="G271" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H271" s="18">
         <v>32804</v>
@@ -16301,7 +16301,7 @@
         <v>5</v>
       </c>
       <c r="O271" s="16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="P271" s="30"/>
       <c r="Q271" s="3"/>
@@ -16326,7 +16326,7 @@
         <v>32804</v>
       </c>
       <c r="G272" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H272" s="18">
         <v>32804</v>
@@ -16350,7 +16350,7 @@
         <v>5</v>
       </c>
       <c r="O272" s="16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="P272" s="30"/>
       <c r="Q272" s="3"/>
@@ -16375,7 +16375,7 @@
         <v>641</v>
       </c>
       <c r="G273" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H273" s="18" t="s">
         <v>641</v>
@@ -16399,7 +16399,7 @@
         <v>5</v>
       </c>
       <c r="O273" s="16" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="P273" s="30"/>
       <c r="Q273" s="3"/>
@@ -16424,7 +16424,7 @@
         <v>641</v>
       </c>
       <c r="G274" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H274" s="18" t="s">
         <v>641</v>
@@ -16448,7 +16448,7 @@
         <v>5</v>
       </c>
       <c r="O274" s="16" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="P274" s="30"/>
       <c r="Q274" s="3"/>
@@ -16473,7 +16473,7 @@
         <v>641</v>
       </c>
       <c r="G275" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H275" s="18" t="s">
         <v>641</v>
@@ -16497,7 +16497,7 @@
         <v>5</v>
       </c>
       <c r="O275" s="16" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="P275" s="30"/>
       <c r="Q275" s="3"/>
@@ -16522,7 +16522,7 @@
         <v>641</v>
       </c>
       <c r="G276" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H276" s="18" t="s">
         <v>641</v>
@@ -16546,7 +16546,7 @@
         <v>5</v>
       </c>
       <c r="O276" s="16" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="P276" s="30"/>
       <c r="Q276" s="3"/>
@@ -16593,7 +16593,7 @@
         <v>5</v>
       </c>
       <c r="O277" s="16" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="P277" s="3"/>
       <c r="Q277" s="3"/>
@@ -16640,7 +16640,7 @@
         <v>5</v>
       </c>
       <c r="O278" s="16" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="P278" s="3"/>
       <c r="Q278" s="3"/>
@@ -16665,7 +16665,7 @@
         <v>33053</v>
       </c>
       <c r="G279" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H279" s="18">
         <v>33053</v>
@@ -16689,7 +16689,7 @@
         <v>5</v>
       </c>
       <c r="O279" s="16" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P279" s="3"/>
       <c r="Q279" s="3"/>
@@ -16714,7 +16714,7 @@
         <v>33053</v>
       </c>
       <c r="G280" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H280" s="18">
         <v>33053</v>
@@ -16738,7 +16738,7 @@
         <v>5</v>
       </c>
       <c r="O280" s="16" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P280" s="3"/>
       <c r="Q280" s="3"/>
@@ -16763,7 +16763,7 @@
         <v>33053</v>
       </c>
       <c r="G281" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H281" s="18">
         <v>33053</v>
@@ -16787,7 +16787,7 @@
         <v>5</v>
       </c>
       <c r="O281" s="16" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P281" s="3"/>
       <c r="Q281" s="3"/>
@@ -16812,7 +16812,7 @@
         <v>33168</v>
       </c>
       <c r="G282" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H282" s="18">
         <v>33168</v>
@@ -16836,7 +16836,7 @@
         <v>5</v>
       </c>
       <c r="O282" s="16" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="P282" s="3"/>
       <c r="Q282" s="3"/>
@@ -16861,7 +16861,7 @@
         <v>33168</v>
       </c>
       <c r="G283" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H283" s="18">
         <v>33168</v>
@@ -16885,7 +16885,7 @@
         <v>5</v>
       </c>
       <c r="O283" s="16" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="P283" s="3"/>
       <c r="Q283" s="3"/>
@@ -16910,7 +16910,7 @@
         <v>642</v>
       </c>
       <c r="G284" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H284" s="18" t="s">
         <v>642</v>
@@ -16934,7 +16934,7 @@
         <v>5</v>
       </c>
       <c r="O284" s="16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="P284" s="3"/>
       <c r="Q284" s="3"/>
@@ -16959,7 +16959,7 @@
         <v>642</v>
       </c>
       <c r="G285" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H285" s="18" t="s">
         <v>642</v>
@@ -16983,7 +16983,7 @@
         <v>5</v>
       </c>
       <c r="O285" s="16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="P285" s="3"/>
       <c r="Q285" s="3"/>
@@ -17008,7 +17008,7 @@
         <v>642</v>
       </c>
       <c r="G286" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H286" s="18" t="s">
         <v>642</v>
@@ -17032,7 +17032,7 @@
         <v>5</v>
       </c>
       <c r="O286" s="16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="P286" s="3"/>
       <c r="Q286" s="3"/>
@@ -17057,7 +17057,7 @@
         <v>642</v>
       </c>
       <c r="G287" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H287" s="18" t="s">
         <v>642</v>
@@ -17081,7 +17081,7 @@
         <v>5</v>
       </c>
       <c r="O287" s="16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="P287" s="3"/>
       <c r="Q287" s="3"/>
@@ -17106,7 +17106,7 @@
         <v>642</v>
       </c>
       <c r="G288" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H288" s="18" t="s">
         <v>642</v>
@@ -17130,7 +17130,7 @@
         <v>5</v>
       </c>
       <c r="O288" s="16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="P288" s="3"/>
       <c r="Q288" s="3"/>
@@ -17155,7 +17155,7 @@
         <v>642</v>
       </c>
       <c r="G289" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H289" s="18" t="s">
         <v>642</v>
@@ -17179,7 +17179,7 @@
         <v>5</v>
       </c>
       <c r="O289" s="16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="P289" s="3"/>
       <c r="Q289" s="3"/>
@@ -17226,7 +17226,7 @@
         <v>5</v>
       </c>
       <c r="O290" s="54" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="P290" s="3"/>
       <c r="Q290" s="3"/>
@@ -17273,7 +17273,7 @@
         <v>5</v>
       </c>
       <c r="O291" s="54" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="P291" s="3"/>
       <c r="Q291" s="3"/>
@@ -17298,7 +17298,7 @@
         <v>33420</v>
       </c>
       <c r="G292" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H292" s="18">
         <v>33420</v>
@@ -17322,7 +17322,7 @@
         <v>5</v>
       </c>
       <c r="O292" s="16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P292" s="3"/>
       <c r="Q292" s="3"/>
@@ -17347,7 +17347,7 @@
         <v>33420</v>
       </c>
       <c r="G293" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H293" s="18">
         <v>33420</v>
@@ -17371,7 +17371,7 @@
         <v>5</v>
       </c>
       <c r="O293" s="16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P293" s="3"/>
       <c r="Q293" s="3"/>
@@ -17396,7 +17396,7 @@
         <v>33539</v>
       </c>
       <c r="G294" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H294" s="18">
         <v>33539</v>
@@ -17420,7 +17420,7 @@
         <v>5</v>
       </c>
       <c r="O294" s="16" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="P294" s="3"/>
       <c r="Q294" s="3"/>
@@ -17445,7 +17445,7 @@
         <v>33539</v>
       </c>
       <c r="G295" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H295" s="18">
         <v>33539</v>
@@ -17469,7 +17469,7 @@
         <v>5</v>
       </c>
       <c r="O295" s="16" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="P295" s="3"/>
       <c r="Q295" s="3"/>
@@ -17494,7 +17494,7 @@
         <v>33539</v>
       </c>
       <c r="G296" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H296" s="18">
         <v>33539</v>
@@ -17518,7 +17518,7 @@
         <v>5</v>
       </c>
       <c r="O296" s="16" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="P296" s="3"/>
       <c r="Q296" s="3"/>
@@ -17540,10 +17540,10 @@
         <v>496</v>
       </c>
       <c r="F297" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="G297" s="17" t="s">
         <v>713</v>
-      </c>
-      <c r="G297" s="17" t="s">
-        <v>714</v>
       </c>
       <c r="H297" s="18">
         <v>33588</v>
@@ -17586,10 +17586,10 @@
         <v>496</v>
       </c>
       <c r="F298" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="G298" s="17" t="s">
         <v>713</v>
-      </c>
-      <c r="G298" s="17" t="s">
-        <v>714</v>
       </c>
       <c r="H298" s="18">
         <v>33588</v>
@@ -17632,10 +17632,10 @@
         <v>496</v>
       </c>
       <c r="F299" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="G299" s="17" t="s">
         <v>713</v>
-      </c>
-      <c r="G299" s="17" t="s">
-        <v>714</v>
       </c>
       <c r="H299" s="18">
         <v>33588</v>
@@ -17769,7 +17769,7 @@
         <v>33784</v>
       </c>
       <c r="G302" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H302" s="18">
         <v>33784</v>
@@ -17815,7 +17815,7 @@
         <v>33784</v>
       </c>
       <c r="G303" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H303" s="18">
         <v>33784</v>
@@ -17861,7 +17861,7 @@
         <v>33784</v>
       </c>
       <c r="G304" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H304" s="18">
         <v>33784</v>
@@ -18039,7 +18039,7 @@
         <v>643</v>
       </c>
       <c r="G308" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H308" s="18" t="s">
         <v>643</v>
@@ -18085,7 +18085,7 @@
         <v>643</v>
       </c>
       <c r="G309" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H309" s="18" t="s">
         <v>643</v>
@@ -18131,7 +18131,7 @@
         <v>643</v>
       </c>
       <c r="G310" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H310" s="18" t="s">
         <v>643</v>
@@ -18177,7 +18177,7 @@
         <v>643</v>
       </c>
       <c r="G311" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H311" s="18" t="s">
         <v>643</v>
@@ -18223,7 +18223,7 @@
         <v>643</v>
       </c>
       <c r="G312" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H312" s="18" t="s">
         <v>643</v>
@@ -18269,7 +18269,7 @@
         <v>34148</v>
       </c>
       <c r="G313" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H313" s="18">
         <v>34148</v>
@@ -18315,7 +18315,7 @@
         <v>34148</v>
       </c>
       <c r="G314" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H314" s="18">
         <v>34148</v>
@@ -18361,7 +18361,7 @@
         <v>34148</v>
       </c>
       <c r="G315" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H315" s="18">
         <v>34148</v>
@@ -18407,7 +18407,7 @@
         <v>34148</v>
       </c>
       <c r="G316" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H316" s="18">
         <v>34148</v>
@@ -18453,7 +18453,7 @@
         <v>34260</v>
       </c>
       <c r="G317" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H317" s="18">
         <v>34260</v>
@@ -18499,7 +18499,7 @@
         <v>34260</v>
       </c>
       <c r="G318" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H318" s="18">
         <v>34260</v>
@@ -18545,7 +18545,7 @@
         <v>644</v>
       </c>
       <c r="G319" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H319" s="23" t="s">
         <v>644</v>
@@ -18589,7 +18589,7 @@
         <v>644</v>
       </c>
       <c r="G320" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H320" s="23" t="s">
         <v>644</v>
@@ -18633,7 +18633,7 @@
         <v>644</v>
       </c>
       <c r="G321" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H321" s="23" t="s">
         <v>644</v>
@@ -18677,7 +18677,7 @@
         <v>644</v>
       </c>
       <c r="G322" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H322" s="23" t="s">
         <v>644</v>
@@ -18721,7 +18721,7 @@
         <v>644</v>
       </c>
       <c r="G323" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H323" s="23" t="s">
         <v>644</v>
@@ -18767,7 +18767,7 @@
         <v>644</v>
       </c>
       <c r="G324" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H324" s="23" t="s">
         <v>644</v>
@@ -18813,7 +18813,7 @@
         <v>644</v>
       </c>
       <c r="G325" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H325" s="23" t="s">
         <v>644</v>
@@ -18859,7 +18859,7 @@
         <v>644</v>
       </c>
       <c r="G326" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H326" s="23" t="s">
         <v>644</v>
@@ -18905,7 +18905,7 @@
         <v>644</v>
       </c>
       <c r="G327" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H327" s="18">
         <v>34324</v>
@@ -18951,7 +18951,7 @@
         <v>644</v>
       </c>
       <c r="G328" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H328" s="18">
         <v>34324</v>
@@ -18997,7 +18997,7 @@
         <v>34512</v>
       </c>
       <c r="G329" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H329" s="18">
         <v>34512</v>
@@ -19043,7 +19043,7 @@
         <v>34512</v>
       </c>
       <c r="G330" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H330" s="18">
         <v>34512</v>
@@ -19089,7 +19089,7 @@
         <v>34512</v>
       </c>
       <c r="G331" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H331" s="18">
         <v>34512</v>
@@ -19135,7 +19135,7 @@
         <v>34512</v>
       </c>
       <c r="G332" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H332" s="18">
         <v>34512</v>
@@ -19473,18 +19473,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
+        <v>734</v>
+      </c>
+      <c r="B1" s="58" t="s">
         <v>735</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -19492,7 +19492,7 @@
         <v>619</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="64.5" x14ac:dyDescent="0.25">
@@ -19512,98 +19512,98 @@
         <v>618</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>740</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="81" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>752</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B18" s="7"/>
     </row>
